--- a/Pmax/Old Pmax/Sample 2/Unnormalized_Pmax_Sample_2C_1kHz.xlsx
+++ b/Pmax/Old Pmax/Sample 2/Unnormalized_Pmax_Sample_2C_1kHz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1023 +436,693 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>File Name</t>
+          <t>Loc</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnormalized P_max</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Electrode Locations</t>
+          <t>P_max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A3_bipolar_20V_1kHz.txt</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>122.406559</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A5_bipolar_20V_1kHz.txt</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>92.069591</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A7_bipolar_20V_1kHz.txt</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>91.678381</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A7</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A11_bipolar_20V_1kHz.txt</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>63.579783</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A11</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A13_bipolar_20V_1kHz.txt</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>48.814609</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A15_bipolar_20V_1kHz.txt</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>38.232907</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A15</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B9_bipolar_20V_1kHz.txt</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>66.32834</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B9</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C1_bipolar_20V_1kHz.txt</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>125.040173</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C5_bipolar_20V_1kHz.txt</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>85.606551</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C5</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C9_bipolar_20V_1kHz.txt</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>63.8621</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C9</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C13_bipolar_20V_1kHz.txt</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>45.30647</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C13</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C15_bipolar_20V_1kHz.txt</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>39.202547</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C15</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D3_bipolar_20V_1kHz.txt</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>92.843946</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D7_bipolar_20V_1kHz.txt</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>66.005692</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D10_bipolar_20V_1kHz.txt</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>58.435566</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D10</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D11_bipolar_20V_1kHz.txt</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>56.052004</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>D11</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D12_bipolar_20V_1kHz.txt</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>50.609665</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>D12</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E1_bipolar_20V_1kHz.txt</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>103.672816</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E5_bipolar_20V_1kHz.txt</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>76.17918299999999</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>E5</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E7_bipolar_20V_1kHz.txt</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>26.669278</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>E7</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E10_bipolar_20V_1kHz.txt</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>45.076408</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E10</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E13_bipolar_20V_1kHz.txt</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>44.630608</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>E13</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E15_bipolar_20V_1kHz.txt</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>39.493332</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E15</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F4_bipolar_20V_1kHz.txt</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>70.90994000000001</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>F4</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F10_bipolar_20V_1kHz.txt</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>53.61198</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>F10</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F12_bipolar_20V_1kHz.txt</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>42.70715</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>F12</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G1_bipolar_20V_1kHz.txt</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>86.63095800000001</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G3_bipolar_20V_1kHz.txt</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>87.24802200000001</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G5_bipolar_20V_1kHz.txt</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>71.200323</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>G7_bipolar_20V_1kHz.txt</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>58.631171</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>G12_bipolar_20V_1kHz.txt</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.688552</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
+        <v>59.197821</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>G13_bipolar_20V_1kHz.txt</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43.265201</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>G13</t>
-        </is>
+        <v>44.688552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>G15_bipolar_20V_1kHz.txt</t>
+          <t>G13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.37509</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>G15</t>
-        </is>
+        <v>43.265201</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>H3_bipolar_20V_1kHz.txt</t>
+          <t>G15</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79.94408</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
+        <v>37.37509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>H7_bipolar_20V_1kHz.txt</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.171743</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
+        <v>79.94408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>H15_bipolar_20V_1kHz.txt</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.298971</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>H15</t>
-        </is>
+        <v>30.171743</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I1_bipolar_20V_1kHz.txt</t>
+          <t>H15</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.489242</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>I1</t>
-        </is>
+        <v>36.298971</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I3_bipolar_20V_1kHz.txt</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.016077</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>I3</t>
-        </is>
+        <v>93.489242</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I5_bipolar_20V_1kHz.txt</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.201365</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
+        <v>24.016077</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I8_bipolar_20V_1kHz.txt</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.188427</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>I8</t>
-        </is>
+        <v>76.201365</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>I9_bipolar_20V_1kHz.txt</t>
+          <t>I8</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.460173</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>I9</t>
-        </is>
+        <v>34.188427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>I11_bipolar_20V_1kHz.txt</t>
+          <t>I9</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.415299</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>I11</t>
-        </is>
+        <v>28.460173</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I13_bipolar_20V_1kHz.txt</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.129213</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>I13</t>
-        </is>
+        <v>44.415299</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>I15_bipolar_20V_1kHz.txt</t>
+          <t>I13</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.922447</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>I15</t>
-        </is>
+        <v>41.129213</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>K1_bipolar_20V_1kHz.txt</t>
+          <t>I15</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.129676</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>K1</t>
-        </is>
+        <v>35.922447</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>K3_bipolar_20V_1kHz.txt</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>78.627274</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>K3</t>
-        </is>
+        <v>61.129676</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>K5_bipolar_20V_1kHz.txt</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>70.643755</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>K5</t>
-        </is>
+        <v>78.627274</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>K9_bipolar_20V_1kHz.txt</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>28.590598</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>K9</t>
-        </is>
+        <v>70.643755</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>K11_bipolar_20V_1kHz.txt</t>
+          <t>K9</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>34.266896</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>K11</t>
-        </is>
+        <v>28.590598</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>K13_bipolar_20V_1kHz.txt</t>
+          <t>K11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>29.404797</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>K13</t>
-        </is>
+        <v>34.266896</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>K15_bipolar_20V_1kHz.txt</t>
+          <t>K13</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>39.914329</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>K15</t>
-        </is>
+        <v>29.404797</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>L7_bipolar_20V_1kHz.txt</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>54.29559</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>L7</t>
-        </is>
+        <v>39.914329</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>M1_bipolar_20V_1kHz.txt</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>34.487337</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
+        <v>54.29559</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>M3_bipolar_20V_1kHz.txt</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>32.720817</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
+        <v>34.487337</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>M6_bipolar_20V_1kHz.txt</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>22.851439</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>M6</t>
-        </is>
+        <v>32.720817</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>M7_bipolar_20V_1kHz.txt</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>30.9528</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>M7</t>
-        </is>
+        <v>22.851439</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>M9_bipolar_20V_1kHz.txt</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>42.951324</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>M9</t>
-        </is>
+        <v>30.9528</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>M13_bipolar_20V_1kHz.txt</t>
+          <t>M9</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>43.568387</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>M13</t>
-        </is>
+        <v>42.951324</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>M15_bipolar_20V_1kHz.txt</t>
+          <t>M13</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>23.301301</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
+        <v>43.568387</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>N12_bipolar_20V_1kHz.txt</t>
+          <t>M15</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>32.576707</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>N12</t>
-        </is>
+        <v>23.301301</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>O1_bipolar_20V_1kHz.txt</t>
+          <t>N12</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>84.945123</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
+        <v>32.576707</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>O4_bipolar_20V_1kHz.txt</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>63.444674</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>O4</t>
-        </is>
+        <v>84.945123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>O7_bipolar_20V_1kHz.txt</t>
+          <t>O4</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>57.721707</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>O7</t>
-        </is>
+        <v>63.444674</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>O9_bipolar_20V_1kHz.txt</t>
+          <t>O7</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>31.461461</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>O9</t>
-        </is>
+        <v>57.721707</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>O11_bipolar_20V_1kHz.txt</t>
+          <t>O9</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>34.595099</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>O11</t>
-        </is>
+        <v>31.461461</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>O14_bipolar_20V_1kHz.txt</t>
+          <t>O11</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>21.354751</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>O14</t>
-        </is>
+        <v>34.595099</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>O15_bipolar_20V_1kHz.txt</t>
+          <t>O14</t>
         </is>
       </c>
       <c r="B68" t="n">
+        <v>21.354751</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>O15</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
         <v>26.81467</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>O15</t>
-        </is>
       </c>
     </row>
   </sheetData>
